--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MonaPHP\src\exs\group2_wp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73504062-7E1B-479F-90EC-A18DF5ECF1CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D59D89-772B-42C6-B244-1AAD091DEDC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>STATUS</t>
-  </si>
-  <si>
-    <t>User Story/ Feature #1</t>
   </si>
   <si>
     <t>Task : Make a list of categories of products</t>
@@ -136,6 +133,54 @@
   </si>
   <si>
     <t xml:space="preserve">As a website user, I can fill out a contact form to ask for support. </t>
+  </si>
+  <si>
+    <t>User Story #2 Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : user database </t>
+  </si>
+  <si>
+    <t>Task : make database blueprint</t>
+  </si>
+  <si>
+    <t>User Story/ Header  &amp; Footer #1</t>
+  </si>
+  <si>
+    <t>Task : Header</t>
+  </si>
+  <si>
+    <t>Task : Footer</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Task : Github repo</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Task: Deploy static web</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>User Story #3 Contact Form</t>
+  </si>
+  <si>
+    <t>User Story #4 Search Bar</t>
+  </si>
+  <si>
+    <t>Jarmila</t>
+  </si>
+  <si>
+    <t>User Story #5 News Letter</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1489,22 +1534,22 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2602,7 +2647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2657,7 +2704,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -2675,16 +2722,16 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2699,13 +2746,17 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2719,13 +2770,17 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2739,12 +2794,14 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2759,10 +2816,12 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2777,7 +2836,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2795,7 +2854,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2813,7 +2872,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2831,7 +2890,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2849,10 +2908,12 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -2867,7 +2928,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2885,7 +2946,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2903,7 +2964,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2921,7 +2982,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2939,10 +3000,12 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2957,7 +3020,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2975,7 +3038,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2993,7 +3056,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3011,7 +3074,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3029,10 +3092,12 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -3047,7 +3112,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3065,7 +3130,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3083,7 +3148,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3101,7 +3166,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3119,7 +3184,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4121,7 +4186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4134,7 +4201,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -4155,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -4176,7 +4243,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -4194,16 +4261,16 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -4218,13 +4285,13 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
@@ -4240,13 +4307,13 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
@@ -4262,13 +4329,13 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
@@ -4284,7 +4351,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -4302,7 +4369,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4320,7 +4387,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4338,7 +4405,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -4356,7 +4423,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4374,7 +4441,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -4392,7 +4459,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4410,7 +4477,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4428,7 +4495,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4446,7 +4513,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4464,7 +4531,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -4482,7 +4549,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4500,7 +4567,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4518,7 +4585,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4536,7 +4603,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4554,7 +4621,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -4572,7 +4639,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4590,7 +4657,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4608,7 +4675,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4626,7 +4693,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4644,7 +4711,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5659,7 +5726,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5680,7 +5747,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -5701,7 +5768,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -5719,16 +5786,16 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -5743,13 +5810,13 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
@@ -5765,13 +5832,13 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
@@ -5787,13 +5854,13 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
@@ -5809,7 +5876,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -5827,7 +5894,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5845,7 +5912,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5863,7 +5930,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5881,7 +5948,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5899,7 +5966,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -5917,7 +5984,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5935,7 +6002,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5953,7 +6020,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5971,7 +6038,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5989,7 +6056,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -6007,7 +6074,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -6025,7 +6092,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -6043,7 +6110,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -6061,7 +6128,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -6079,7 +6146,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -6097,7 +6164,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6115,7 +6182,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -6133,7 +6200,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -6151,7 +6218,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -6169,7 +6236,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markpetrov/Desktop/GitHub/group2_wp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABAFCA9-130E-3E4C-B6B1-8BF5D4261C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B4CDFF-C7CE-504B-8741-62B9174455D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>Task: Deploy static web</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>As a user I am able to withdraw the booking</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -416,6 +416,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,8 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,24 +1510,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="99" customWidth="1"/>
-    <col min="2" max="2" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1535,58 +1535,58 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>46</v>
+      <c r="A3" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
@@ -2678,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2691,25 +2691,25 @@
     <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="29" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="38" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2759,10 +2759,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2786,7 +2786,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2810,7 +2810,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -2939,11 +2939,11 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
@@ -3031,11 +3031,11 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
@@ -4218,7 +4218,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4230,25 +4230,25 @@
     <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="27" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -5744,7 +5744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5756,22 +5758,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markpetrov/Desktop/GitHub/group2_wp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B4CDFF-C7CE-504B-8741-62B9174455D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D3D16-391F-BB41-9843-6B0B03BC4A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -69,19 +69,10 @@
     <t>Task: Display products</t>
   </si>
   <si>
-    <t>User Story #2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task </t>
   </si>
   <si>
     <t>Task</t>
-  </si>
-  <si>
-    <t>User Story #3</t>
-  </si>
-  <si>
-    <t>User Story #4</t>
   </si>
   <si>
     <t>User Story #5</t>
@@ -120,9 +111,6 @@
     <t xml:space="preserve">As a website user, I can fill out a contact form to ask for support. </t>
   </si>
   <si>
-    <t>User Story #2 Booking</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task : user database </t>
   </si>
   <si>
@@ -141,28 +129,13 @@
     <t>Mark</t>
   </si>
   <si>
-    <t>Task : Github repo</t>
-  </si>
-  <si>
     <t>ALL</t>
-  </si>
-  <si>
-    <t>Task: Deploy static web</t>
   </si>
   <si>
     <t>Mona</t>
   </si>
   <si>
-    <t>User Story #3 Contact Form</t>
-  </si>
-  <si>
-    <t>User Story #4 Search Bar</t>
-  </si>
-  <si>
     <t>Jarmila</t>
-  </si>
-  <si>
-    <t>User Story #5 News Letter</t>
   </si>
   <si>
     <t>As a site visitor, I am able to search for destinations by price and key words</t>
@@ -190,6 +163,30 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>User Story #2 Customers, Log in, Supports query, Newsletter, Payment status</t>
+  </si>
+  <si>
+    <t>User Story #3 Destinations, Destination category, admin, Admin permissions, Posts</t>
+  </si>
+  <si>
+    <t>User Story #4 Customer order, Cart item, Order status, Payments, Payment method, Discount category</t>
+  </si>
+  <si>
+    <t>User Story #2 User Story #2 Customers, Log in, Supports query, Newsletter, Payment status</t>
+  </si>
+  <si>
+    <t>Database design</t>
+  </si>
+  <si>
+    <t>Task: Deploy static web + GitHub repo</t>
+  </si>
+  <si>
+    <t>As a user I am able to download the pricelist</t>
+  </si>
+  <si>
+    <t>As an admin I am able to upload the pricelist</t>
   </si>
 </sst>
 </file>
@@ -1510,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1536,64 +1533,68 @@
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
@@ -2678,13 +2679,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A11" zoomScale="158" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="67.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
@@ -2735,7 +2736,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -2753,16 +2754,16 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2777,16 +2778,16 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2801,16 +2802,16 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2825,15 +2826,17 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -2845,13 +2848,13 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="23" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -2867,7 +2870,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2903,7 +2906,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2939,11 +2942,11 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3029,13 +3032,13 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="35" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
@@ -3051,7 +3054,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3123,12 +3126,10 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3143,7 +3144,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3161,7 +3162,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3179,7 +3180,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3197,7 +3198,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3215,7 +3216,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4217,13 +4218,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A14" zoomScale="193" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
@@ -4232,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4253,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -4274,7 +4275,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -4322,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
@@ -4344,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
@@ -4366,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
@@ -4380,12 +4381,14 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="26" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4400,7 +4403,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4418,7 +4421,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4454,7 +4457,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4470,12 +4473,14 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="28" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -4490,7 +4495,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4508,7 +4513,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4526,7 +4531,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4544,7 +4549,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4560,12 +4565,14 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="27" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -4580,7 +4587,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4598,7 +4605,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4616,7 +4623,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4634,7 +4641,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4652,7 +4659,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -4670,7 +4677,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4688,7 +4695,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -4706,7 +4713,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -4724,7 +4731,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -4742,7 +4749,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -5744,22 +5751,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="28" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5775,12 +5782,12 @@
       <c r="M1" s="15"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="27" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -5801,7 +5808,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5849,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
@@ -5871,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
@@ -5893,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
@@ -5907,12 +5914,14 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="27" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5927,7 +5936,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5945,7 +5954,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -5963,7 +5972,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -5981,7 +5990,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -5997,12 +6006,14 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="30" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -6017,7 +6028,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -6035,7 +6046,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6053,7 +6064,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -6071,7 +6082,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6087,12 +6098,14 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="28" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -6107,7 +6120,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6125,7 +6138,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6143,7 +6156,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6161,7 +6174,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6179,7 +6192,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -6197,7 +6210,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6215,7 +6228,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6233,7 +6246,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6251,7 +6264,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6269,7 +6282,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MonaPHP\src\exs\group2_wp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E3A05-49AC-4352-B9F0-CE263692CEC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0116E0-14DD-4657-8606-7E5C544C6510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>User Story #3 Customer Order, Order Status, Cart Item, Payments, Payment Method</t>
   </si>
   <si>
-    <t xml:space="preserve">User Story #2 Support Query, Newsletter, Customers, Payment method, </t>
-  </si>
-  <si>
     <t>User Story #4 Destination Category, Destinations, Admin, Login, Admin Permissions, Posts</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Task : Created connection to the database</t>
+  </si>
+  <si>
+    <t>User Story #2 Support Query, Newsletter, Customers, Payment method, Booking</t>
   </si>
 </sst>
 </file>
@@ -2688,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2772,7 +2772,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2796,7 +2796,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2820,7 +2820,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2844,7 +2844,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="8" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -2879,12 +2879,12 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2899,12 +2899,12 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2919,12 +2919,12 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2939,12 +2939,12 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2979,12 +2979,12 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2999,12 +2999,12 @@
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3019,12 +3019,12 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3039,12 +3039,12 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="18" spans="1:14" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
@@ -4244,7 +4244,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="8" spans="1:14" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -4520,11 +4520,11 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
@@ -4540,11 +4540,11 @@
     </row>
     <row r="15" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
@@ -4560,11 +4560,11 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
@@ -4600,7 +4600,7 @@
     </row>
     <row r="18" spans="1:14" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
@@ -5784,8 +5784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -6133,7 +6133,7 @@
     </row>
     <row r="18" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MonaPHP\src\exs\group2_wp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0116E0-14DD-4657-8606-7E5C544C6510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A82AC3-B9F2-4D2D-BC73-5A4F67F78D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>User Story #2 Support Query, Newsletter, Customers, Payment method, Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Created possibility to send support request </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Created possibility to subscribe to newsletter </t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4243,8 +4249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4428,10 +4434,12 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4446,10 +4454,12 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5784,8 +5794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MonaPHP\src\exs\group2_wp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4080274-336D-4423-9C56-1192153C5BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A734F91-F1C2-444B-81C7-D7CC2670CFC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Task : Created database for tables</t>
-  </si>
-  <si>
-    <t>User Story #2 Support Query, Newsletter, Customers, Payment method, Booking</t>
   </si>
   <si>
     <t xml:space="preserve">Task : Created possibility to send support request </t>
@@ -2928,7 +2925,7 @@
     </row>
     <row r="8" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -2988,7 +2985,7 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3008,7 +3005,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3148,7 +3145,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3168,7 +3165,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3188,7 +3185,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4321,7 +4318,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4485,7 +4482,7 @@
     </row>
     <row r="8" spans="1:14" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -4505,7 +4502,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -4525,7 +4522,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -4545,7 +4542,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -4565,7 +4562,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -4705,7 +4702,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
@@ -4725,7 +4722,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
@@ -4745,7 +4742,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
@@ -4765,7 +4762,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
@@ -5877,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6042,7 +6039,7 @@
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
@@ -6062,7 +6059,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -6082,7 +6079,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -6102,7 +6099,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -6122,7 +6119,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6160,7 +6157,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
@@ -6180,7 +6177,7 @@
     </row>
     <row r="15" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
@@ -6256,7 +6253,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
@@ -6276,7 +6273,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
@@ -6296,7 +6293,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
@@ -6316,7 +6313,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
